--- a/PolicyEffectiveness/0-DayLag_MontanaPolicy.xlsx
+++ b/PolicyEffectiveness/0-DayLag_MontanaPolicy.xlsx
@@ -2411,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3531,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3699,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3811,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4091,7 +4091,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -4259,7 +4259,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -4315,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -4427,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4483,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -4539,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -4595,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -4707,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -4763,7 +4763,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -4875,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -4931,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -4987,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -5099,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -5155,7 +5155,7 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -5379,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -5491,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -5603,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -5771,7 +5771,7 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -5827,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -5883,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -5939,7 +5939,7 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -5995,7 +5995,7 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -6107,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -6163,7 +6163,7 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -6219,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -6331,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -6387,7 +6387,7 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -6443,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -6555,7 +6555,7 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -6611,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -6667,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -6723,7 +6723,7 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -6835,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -7003,7 +7003,7 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -7059,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -7115,7 +7115,7 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -7227,7 +7227,7 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -7283,7 +7283,7 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -7339,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -7451,7 +7451,7 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -7507,7 +7507,7 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -7619,7 +7619,7 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -7675,7 +7675,7 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -7731,7 +7731,7 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -7787,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -7899,7 +7899,7 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -7955,7 +7955,7 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -8011,7 +8011,7 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -8123,7 +8123,7 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -8179,7 +8179,7 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -8235,7 +8235,7 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -8347,7 +8347,7 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -8403,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -8459,7 +8459,7 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -8571,7 +8571,7 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -8627,7 +8627,7 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -8683,7 +8683,7 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -8739,7 +8739,7 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -8851,7 +8851,7 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -8907,7 +8907,7 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -8963,7 +8963,7 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -9019,7 +9019,7 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -9075,7 +9075,7 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -9131,7 +9131,7 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -9299,7 +9299,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -9355,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -9411,7 +9411,7 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -9523,7 +9523,7 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -9691,7 +9691,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -9747,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -9803,7 +9803,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -9859,7 +9859,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -10083,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -10139,7 +10139,7 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -10195,7 +10195,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -10251,7 +10251,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -10307,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>0</v>
